--- a/Fuel_experiment/Gastos.xlsx
+++ b/Fuel_experiment/Gastos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canut\Desktop\camb x3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Python-developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7E0DD-6A98-481A-ABE2-894364C42751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F25470-1ACE-442D-AB17-76B752B22266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -513,6 +513,9 @@
                 <c:pt idx="2">
                   <c:v>9.64</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -919,7 +922,7 @@
                   <c:v>1362.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.76999999999998</c:v>
+                  <c:v>153.76999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2622,11 +2625,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B085D992-F42C-4DEB-BAE9-044A75F6AF3E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2637,16 +2640,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D601E6-C2DE-4319-9760-831D5DD2E381}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>140.13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2695,12 +2698,15 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2708,14 +2714,14 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <f>SUM(Table3[2023])</f>
         <v>1362.52</v>
       </c>
       <c r="C8">
         <f>SUM(Table3[2024])</f>
-        <v>149.76999999999998</v>
+        <v>153.76999999999998</v>
       </c>
     </row>
   </sheetData>
